--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\alpha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F3179-91E4-42F4-AFD9-24991F107718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C12B0-99D7-4A5C-B1EF-BF5E56035D11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ratio_threshold_range</t>
-  </si>
-  <si>
-    <t>theta_threshold_range</t>
   </si>
   <si>
     <t>pie_threshold_range</t>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158707C9-0263-45BC-A1DA-0371CDFDAA23}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>12.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>11.2</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -480,7 +477,7 @@
         <v>0.7</v>
       </c>
       <c r="C4" s="2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,25 +485,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>167.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>29.8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C12B0-99D7-4A5C-B1EF-BF5E56035D11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E6614F-8399-4337-9552-DA3384D25A5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="C2" s="2">
         <v>10.4</v>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="C3" s="2">
         <v>9.3000000000000007</v>
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\3His\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E6614F-8399-4337-9552-DA3384D25A5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A605FD-9D3C-4060-800A-978F24870075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="2">
-        <v>10.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\3His\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Cu\2His_1Cys\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A605FD-9D3C-4060-800A-978F24870075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F538AB60-8B9C-44B4-B6D1-3EFCC50AB678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>5.5</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="C3" s="2">
-        <v>9.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Cu\2His_1Cys\probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Cu\3His\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F538AB60-8B9C-44B4-B6D1-3EFCC50AB678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1342A8AE-3435-402C-BE8C-7C4AAADEEAD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>5.5</v>
       </c>
       <c r="C2" s="2">
-        <v>8.6999999999999993</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Cu\3His\probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\3His\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1342A8AE-3435-402C-BE8C-7C4AAADEEAD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B7481E-148A-44B8-9FAF-206B53A1DC79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="8805" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="C3" s="2">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\3His\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Cu\3His\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B7481E-148A-44B8-9FAF-206B53A1DC79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1342A8AE-3435-402C-BE8C-7C4AAADEEAD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="8805" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="2">
-        <v>10.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Cu\3His\probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1342A8AE-3435-402C-BE8C-7C4AAADEEAD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{340D4C06-75BE-4D31-8E34-47698002BB00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="C3" s="2">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{340D4C06-75BE-4D31-8E34-47698002BB00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2BB9B3-6B9B-43C4-B72F-D72B917A30BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
         <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2BB9B3-6B9B-43C4-B72F-D72B917A30BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E7583-3CD7-4BB0-84C9-042BFCC9AC95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>5.7</v>
       </c>
       <c r="C2" s="2">
-        <v>10.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>5.7</v>
       </c>
       <c r="C3" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E7583-3CD7-4BB0-84C9-042BFCC9AC95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61142C3F-706F-435B-9902-0583B6266F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="C3" s="2">
         <v>9.5</v>
@@ -477,7 +477,7 @@
         <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61142C3F-706F-435B-9902-0583B6266F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9CD51-BE1F-4F08-8E99-9E7B37FB8BFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="C3" s="2">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9CD51-BE1F-4F08-8E99-9E7B37FB8BFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E16414C-A205-4A5D-B43C-254840E67C9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>5.8</v>
       </c>
       <c r="C2" s="2">
-        <v>10.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E16414C-A205-4A5D-B43C-254840E67C9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E75B2DD-2183-4DC8-A37A-76E8ED841141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E75B2DD-2183-4DC8-A37A-76E8ED841141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A07C0-AC50-42F4-8791-5834C093B2E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>5.5</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A07C0-AC50-42F4-8791-5834C093B2E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA56F3D-A71D-42C3-86F3-06BFFF78913B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA56F3D-A71D-42C3-86F3-06BFFF78913B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0214F126-DA22-4E3E-9249-D10E369C82FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>5.5</v>
       </c>
       <c r="C2" s="2">
-        <v>10.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0214F126-DA22-4E3E-9249-D10E369C82FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473A962-EA25-4576-A012-28C8E3689B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -477,7 +477,7 @@
         <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Zn_3His_threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473A962-EA25-4576-A012-28C8E3689B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81E72D4-9EE3-4051-AA02-8D3D4A057BD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>5.5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/1.xlsx
+++ b/Threshold/Zn/3His/1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\Zn\3His\threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\3His\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6896B4D-0C3E-4FAF-ABCF-91097C8267BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FAB2127-536F-4428-8901-B85ECF06BF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="B2:C5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
